--- a/Output/PesquisaProdutos.xlsx
+++ b/Output/PesquisaProdutos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauro.morais\OneDrive - T2C CONSULTORIA LTDA\Documentos\UiPath\PesqiosaSiteCasasBahia\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB94838-B276-4930-A030-78703C027ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D6FD65-29F1-4119-9038-C7AD504FBEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{DBFC535D-4A4E-4C4A-B647-F80A9D9B4978}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{DBFC535D-4A4E-4C4A-B647-F80A9D9B4978}"/>
   </bookViews>
   <sheets>
     <sheet name="Melhores" sheetId="3" r:id="rId1"/>

--- a/Output/PesquisaProdutos.xlsx
+++ b/Output/PesquisaProdutos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauro.morais\OneDrive - T2C CONSULTORIA LTDA\Documentos\UiPath\PesqiosaSiteCasasBahia\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D6FD65-29F1-4119-9038-C7AD504FBEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B229D486-85DD-42A0-84E1-0A73C661C16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{DBFC535D-4A4E-4C4A-B647-F80A9D9B4978}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{8975C06A-F4D2-42EC-B6E4-0FABDEE84D27}"/>
   </bookViews>
   <sheets>
     <sheet name="Melhores" sheetId="3" r:id="rId1"/>
@@ -454,8 +454,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96883ECA-5060-49FF-9094-3643D956E947}">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5BB35F-DB52-4469-A2EB-6D3543CDE62C}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,174 +469,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FB910C-9A3F-4497-834D-2B96C4603232}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAE75EA-D5A7-4EF6-AF8B-F95FAF3F73E5}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -650,13 +490,173 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07D39F4-C30C-426A-961F-F949D406AFC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912FC071-889B-4B86-B754-CC68A9249896}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
